--- a/Results/Results_Alice_91_Site_1A_Trina_Power.xlsx
+++ b/Results/Results_Alice_91_Site_1A_Trina_Power.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2132479224371362</v>
+        <v>0.216494553753843</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9478991709813461</v>
+        <v>0.9623306322514821</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3717052148908185</v>
+        <v>0.3764006536953189</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>max\_depth: 2, max\_features: 6 \\</t>
+          <t>max\_depth: 2, max\_features: 4 \\</t>
         </is>
       </c>
     </row>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2148028351548085</v>
+        <v>0.2169259982527708</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9548108466459211</v>
+        <v>0.9642484276428003</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3657424712271808</v>
+        <v>0.3691163795579652</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>max\_depth: 4, max\_features: 4, n\_estimators: 100 \\</t>
+          <t>max\_depth: 4, max\_features: 6, n\_estimators: 200 \\</t>
         </is>
       </c>
     </row>
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2071409276599096</v>
+        <v>0.2071409276599118</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9207532310802108</v>
+        <v>0.9207532310802201</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3538266445769541</v>
+        <v>0.353826644576964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2066927224101513</v>
+        <v>0.2066927184661046</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9187609331960394</v>
+        <v>0.9187609156645271</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3550930874394342</v>
+        <v>0.3550930811283948</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -620,13 +620,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2184873375763387</v>
+        <v>0.213517639720418</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9711886699369161</v>
+        <v>0.9490980796801988</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3688668850512741</v>
+        <v>0.3693708632465984</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.1, max\_depth: 12, max\_features: 2, n\_estimators: 200 \\</t>
+          <t>learning\_rate: 0.1, max\_depth: 2, max\_features: 2, n\_estimators: 50 \\</t>
         </is>
       </c>
     </row>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2603654463239453</v>
+        <v>0.217155695367041</v>
       </c>
       <c r="D10" t="n">
-        <v>1.157339250493334</v>
+        <v>0.9652694444091308</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4660643553543239</v>
+        <v>0.3675045227594317</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>n\_hidden: 1, n\_neurons: 38, activation: tanh, learning\_rate: 0.005, input\_shape: 12 \\</t>
+          <t>n\_hidden: 2, n\_neurons: 70, activation: gelu, learning\_rate: 0.007, input\_shape: 12 \\</t>
         </is>
       </c>
     </row>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2263948848722577</v>
+        <v>0.2428509513926233</v>
       </c>
       <c r="D11" t="n">
-        <v>1.00633816842034</v>
+        <v>1.079486322146746</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4018385671851292</v>
+        <v>0.4389462950032964</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2088122756055686</v>
+        <v>0.2079875961148583</v>
       </c>
       <c r="D12" t="n">
-        <v>0.928182467970331</v>
+        <v>0.9245167206250081</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3612436987254472</v>
+        <v>0.3649943448404027</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2077593227739011</v>
+        <v>0.2076820698894318</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9235020326122124</v>
+        <v>0.9231586391371087</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3565698497159472</v>
+        <v>0.3558539075391847</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2601445679218963</v>
+        <v>0.238694385469575</v>
       </c>
       <c r="D14" t="n">
-        <v>1.156357433405519</v>
+        <v>1.061010149682519</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3976494402788551</v>
+        <v>0.3926799918824795</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2540127348080897</v>
+        <v>0.232172000198546</v>
       </c>
       <c r="D15" t="n">
-        <v>1.129101085682428</v>
+        <v>1.032017775357972</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4557198285800627</v>
+        <v>0.3933912945452072</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -881,22 +881,20 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2063905837117874</v>
+        <v>0.2048793892832957</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9174179094590323</v>
+        <v>0.9107005640819343</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3550792367397128</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
-        </is>
+        <v>0.3520750957577883</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>omega: 10000, r: 10 \\</t>
+          <t>omega: 10000, r: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -910,22 +908,20 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3369222674344075</v>
+        <v>0.2048778744629491</v>
       </c>
       <c r="D17" t="n">
-        <v>1.497638684289539</v>
+        <v>0.9106938306191446</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4399164972682533</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 77, 78, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 3, 4, 5, 5, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 4, 5, 6, 7, 8, 9, 10, 11, 12, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 21, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56]</t>
-        </is>
+        <v>0.3520657595888778</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>omega: 50, r: 0.1 \\</t>
+          <t>omega: 1000, r: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -939,22 +935,20 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2086105291536548</v>
+        <v>0.2040855971238866</v>
       </c>
       <c r="D18" t="n">
-        <v>0.927285693491443</v>
+        <v>0.9071721126849119</v>
       </c>
       <c r="E18" t="n">
-        <v>0.360438168751712</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3]</t>
-        </is>
+        <v>0.3521733687739505</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>mu: 0.1, omega: 1000 \\</t>
+          <t>mu: 0.3, omega: 1000 \\</t>
         </is>
       </c>
     </row>
@@ -968,22 +962,20 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2095260758143884</v>
+        <v>0.2054998676977693</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9313553505872114</v>
+        <v>0.9134586260033333</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3576041367825446</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+        <v>0.3530993065361773</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.1, lambda1: 0.001, r: 0.1, s: 100 \\</t>
+          <t>alpha: 0.1, beta: 0.1, lambda1: 0.001, omega: 100, sigma: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -997,18 +989,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4043459096925704</v>
+        <v>0.4508895687924844</v>
       </c>
       <c r="D20" t="n">
-        <v>1.797340617469666</v>
+        <v>2.004229835291953</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5627204314143255</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[1, 2, 2, 3, 4, 5, 5, 5, 5, 5, 5, 5, 6, 6, 7, 7, 7, 7, 7, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 19, 20, 21, 21, 21, 21, 22, 22, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 24, 24, 24, 25, 26, 26, 27, 28, 29, 30, 30, 30, 31, 32, 32, 33, 34, 34, 35, 35, 35, 35, 35, 35, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 37, 38, 39, 40, 41, 41, 41, 41, 41, 41, 41, 41, 41, 42, 42, 42, 42, 42, 42, 42, 42, 42, 43, 43, 44, 44, 44, 45, 46, 46, 47, 47, 48, 48, 48, 48, 48, 49, 49, 50, 50, 51, 51, 51, 51, 51, 51, 51, 51, 52, 53, 54, 54, 54, 54, 54, 55, 55, 55, 55, 56, 56, 57, 57, 58, 58, 58, 59, 59, 59, 60, 60, 61, 61, 61, 61, 61, 61, 61, 61, 61, 61, 61, 61, 61, 62, 62, 62, 62, 62, 62, 63, 63, 63, 63, 63, 63, 63, 64, 64, 64, 64, 64, 64, 64, 65, 66, 67, 68, 69, 70, 70, 71, 72, 73, 73, 74, 74, 75, 76, 76, 77, 77, 78, 78, 79, 79, 79, 79, 79, 79, 79, 79, 79, 79, 80, 81, 82, 83, 83, 83, 84, 84, 85, 85, 86, 86, 86, 86, 86, 87, 87, 88, 88, 89, 90, 90, 90, 91, 91, 91, 92, 92, 93, 93, 94, 94, 95, 95, 96, 96, 96, 96, 96, 97, 97, 97, 97, 98, 99, 100, 101, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 110, 110, 111, 111, 111, 112, 112, 112, 112, 112, 112, 113, 113, 113, 113, 113, 113, 113, 113, 113, 113, 113, 113, 113, 113, 113, 114, 114, 114, 114, 115, 115, 115, 115, 115, 115, 116, 116, 116, 116, 117, 117, 117, 117, 117, 117, 117, 118, 119, 119, 120, 121, 122, 122, 123, 124, 125, 125, 125, 126, 127, 128, 129, 130, 131, 132, 132, 133, 133, 134, 134, 134, 134, 135, 135, 135, 135, 136, 137, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 139, 139, 139, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140]</t>
-        </is>
+        <v>0.6179100142388599</v>
+      </c>
+      <c r="F20" t="n">
+        <v>138</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1026,22 +1016,20 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2075690828145945</v>
+        <v>0.205449459453054</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9226564051488667</v>
+        <v>0.9132345584821582</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3494675697513943</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3]</t>
-        </is>
+        <v>0.3532152811008513</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.01, e\_utility: 0.05, lambda1: 0.75, omega: 10000, pi: 0.3, sigma: 0.1 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.05, lambda1: 0.5, omega: 10000, pi: 0.5, sigma: 0.5 \\</t>
         </is>
       </c>
     </row>
@@ -1055,22 +1043,20 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2926329921127566</v>
+        <v>0.2316480938599464</v>
       </c>
       <c r="D22" t="n">
-        <v>1.300770330868026</v>
+        <v>1.02968898181872</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4609389159523486</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 6, 7, 7, 8, 9, 10, 10, 11, 12, 13, 13, 13, 14, 14, 14, 14, 14, 14, 14, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 16, 16, 16, 16, 17, 17, 17, 18, 19, 19, 19, 19, 19, 20, 20, 20, 21, 21, 21, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 22, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 24, 24, 24, 24, 24, 25, 25, 26, 26, 27, 27, 27, 28, 28, 29, 29, 30, 30, 30, 30, 30, 30, 31, 31, 32, 32, 32, 32, 33, 33, 34, 34, 34, 35, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 37, 35, 34, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33]</t>
-        </is>
+        <v>0.3794632915924392</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.25, e\_utility: 0.03, lambda1: 0.001, sigma: 10 \\</t>
+          <t>alpha: 0.05, beta: 0.25, e\_utility: 0.05, lambda1: 0.001, sigma: 10 \\</t>
         </is>
       </c>
     </row>
@@ -1084,20 +1070,20 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2433678939714347</v>
+        <v>0.2848126221400735</v>
       </c>
       <c r="D23" t="n">
-        <v>1.081784161376785</v>
+        <v>1.266008340555745</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3890169095060454</v>
+        <v>0.4084389984485181</v>
       </c>
       <c r="F23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>fuzzy\_operator: max, rules: 16 \\</t>
+          <t>fuzzy\_operator: prod, rules: 13 \\</t>
         </is>
       </c>
     </row>
@@ -1111,13 +1097,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.2495316924304767</v>
+        <v>0.2371424161043116</v>
       </c>
       <c r="D24" t="n">
-        <v>1.109182596881564</v>
+        <v>1.054111557387181</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4385459926820224</v>
+        <v>0.4149328391550006</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1138,20 +1124,20 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2095669261081197</v>
+        <v>0.2103253550790418</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9315369324714318</v>
+        <v>0.934908192479825</v>
       </c>
       <c r="E25" t="n">
-        <v>0.351293452205597</v>
+        <v>0.3552525209252443</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: minmax, rules: 4 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 2 \\</t>
         </is>
       </c>
     </row>
@@ -1165,20 +1151,20 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.2342117867775209</v>
+        <v>0.20731282936038</v>
       </c>
       <c r="D26" t="n">
-        <v>1.041084742975249</v>
+        <v>0.9215173439376954</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3886699923360296</v>
+        <v>0.3535348594976804</v>
       </c>
       <c r="F26" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>error\_metric: CPPM, fuzzy\_operator: prod, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 17, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: RMSE, fuzzy\_operator: minmax, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 11, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
     </row>
@@ -1192,20 +1178,20 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2207215786173151</v>
+        <v>0.2090063323271945</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9811199987222567</v>
+        <v>0.9290450611597525</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3619448493408665</v>
+        <v>0.3518088460135911</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.99, rules: 1 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: MAE, fuzzy\_operator: prod, lambda1: 0.97, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
     </row>
@@ -1219,20 +1205,20 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.2071093393305008</v>
+        <v>0.2404912609045081</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9206128191553621</v>
+        <v>1.068997363417893</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3630840578957274</v>
+        <v>0.382621474409821</v>
       </c>
       <c r="F28" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: minmax, rules: 4 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: CPPM, fuzzy\_operator: prod, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 3, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
     </row>
@@ -1246,13 +1232,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.2322031684332996</v>
+        <v>0.2200974688435089</v>
       </c>
       <c r="D29" t="n">
-        <v>1.032156319938131</v>
+        <v>0.9783457952016263</v>
       </c>
       <c r="E29" t="n">
-        <v>0.361290895836796</v>
+        <v>0.3679545340620224</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1261,7 +1247,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>combination: weighted\_average, n\_estimators: 50 \\</t>
+          <t>combination: median, n\_estimators: 50 \\</t>
         </is>
       </c>
     </row>
@@ -1275,13 +1261,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.2143083683753938</v>
+        <v>0.2078967309800335</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9526129136253861</v>
+        <v>0.9241128199211365</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3578351157100965</v>
+        <v>0.3579224214918503</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1304,13 +1290,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2117681868645983</v>
+        <v>0.2101438001793833</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9413216620122081</v>
+        <v>0.934101170601689</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3590762463459358</v>
+        <v>0.3617992240005157</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
